--- a/Test-Task.xlsx
+++ b/Test-Task.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
   <si>
     <t>ID</t>
   </si>
@@ -41,11 +41,6 @@
   </si>
   <si>
     <t>Steps to reproduce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actual result: The purchase made is not displayed in the personal account
-Expected result: The purchase made is displayed in the personal account
-</t>
   </si>
   <si>
     <t>1. Open https://meest.cn/ru/shop/product/589178471615
@@ -76,12 +71,142 @@
   <si>
     <t>2.png</t>
   </si>
+  <si>
+    <t>1.png</t>
+  </si>
+  <si>
+    <t>Environment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PC
+Windows 10 Pro x64 v.1903; 
+Google Chrome v.96.0.4664.45; </t>
+  </si>
+  <si>
+    <t>Actual result: The purchase made is not displayed in the personal account
+Expected result: The purchase made is displayed in the personal account
+(The purchase appeared in the personal account the next day)</t>
+  </si>
+  <si>
+    <t>Description "Package details" are not displayed in the personal account</t>
+  </si>
+  <si>
+    <t>Actual result: Description "Package details" are not displayed in the personal account
+Expected result: The Description "Package details" is displayed in the personal account</t>
+  </si>
+  <si>
+    <t>1. Open https://cab.meest.cn/#/dashboard/home
+2. Click to your order number</t>
+  </si>
+  <si>
+    <t>3.png</t>
+  </si>
+  <si>
+    <t>4.png</t>
+  </si>
+  <si>
+    <t>The app was not found on Google Play at this link</t>
+  </si>
+  <si>
+    <t>Actual result: The app was not found on Google Play at this link
+Expected result: The app was found on Google Play at this link</t>
+  </si>
+  <si>
+    <t>1. Open https://meest.cn/ru/shop/catalog?id=otc-276
+2. Click on the Google Play icon</t>
+  </si>
+  <si>
+    <t>The app was not found on App Store  at this link</t>
+  </si>
+  <si>
+    <t>Actual result: The app was not found on App Store at this link
+Expected result: The app was found on App Store at this link</t>
+  </si>
+  <si>
+    <t>1. Open https://meest.cn/ru/shop/catalog?id=otc-276
+2. Click on the App Store icon</t>
+  </si>
+  <si>
+    <t>5.png</t>
+  </si>
+  <si>
+    <t>EasyWallet</t>
+  </si>
+  <si>
+    <t>Mobile
+Google Pixel 3 XL
+Android 12
+EasyWallet v.1.9.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system "Поповнити" does not work </t>
+  </si>
+  <si>
+    <t>Actual result: The system "Поповнити" does not work 
+Expected result: The "Поповнити" system works</t>
+  </si>
+  <si>
+    <t>1. Open app EasyWallet
+2. Click "Menu"
+3. Click "Поповнити"</t>
+  </si>
+  <si>
+    <t>6.png</t>
+  </si>
+  <si>
+    <t>"Платіжні картки" functionality does not work</t>
+  </si>
+  <si>
+    <t>Actual result: "Платіжні картки" functionality does not work
+Expected result: The window with payment cards opens</t>
+  </si>
+  <si>
+    <t>1. Open app EasyWallet
+2. Click "Menu"
+3. Click "Мої картки"
+4. Click "Платіжні картки"</t>
+  </si>
+  <si>
+    <t>7.png</t>
+  </si>
+  <si>
+    <t>The service does not work in Dnipro</t>
+  </si>
+  <si>
+    <t>Actual result: The service does not work in Dnipro
+Expected result: You can buy a ticket in Dnipro</t>
+  </si>
+  <si>
+    <t>1. Open app EasyWallet
+2. Click city selection
+3. Click "Дніпро"</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>8.png</t>
+  </si>
+  <si>
+    <t>Inactive icon for buying coffee in Buondi</t>
+  </si>
+  <si>
+    <t>Actual result: Inactive icon for buying coffee in Buondi
+Expected result: Active icon for buying coffee in Buondi</t>
+  </si>
+  <si>
+    <t>1. Open app EasyWallet
+2. Click icon "Buondi"</t>
+  </si>
+  <si>
+    <t>9.png</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,19 +215,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="16"/>
-      <color rgb="FF111111"/>
-      <name val="Segoe UI"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF333333"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -110,6 +228,54 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF555555"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF111111"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FF555555"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -147,26 +313,40 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -474,13 +654,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:G6"/>
+  <dimension ref="A2:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
@@ -489,33 +669,42 @@
     <col min="5" max="5" width="37.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="8" max="8" width="18.140625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="2" spans="1:9">
+      <c r="C2" s="3"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+    </row>
+    <row r="4" spans="1:9" ht="21">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="120.75" x14ac:dyDescent="0.25">
+      <c r="H4" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="110.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -525,18 +714,24 @@
       <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="103.5" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" ht="94.5">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -544,26 +739,219 @@
         <v>6</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="E6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>16</v>
+      <c r="H6" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="75">
+      <c r="A7" s="4">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="75">
+      <c r="A8" s="4">
+        <v>4</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="75">
+      <c r="A9" s="4">
+        <v>5</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="60">
+      <c r="A10" s="4">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="63">
+      <c r="A11" s="4">
+        <v>7</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60">
+      <c r="A12" s="4">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="63">
+      <c r="A13" s="4">
+        <v>9</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G6" r:id="rId1"/>
+    <hyperlink ref="G5" r:id="rId2"/>
+    <hyperlink ref="G7" r:id="rId3"/>
+    <hyperlink ref="G8" r:id="rId4"/>
+    <hyperlink ref="G9" r:id="rId5"/>
+    <hyperlink ref="G10" r:id="rId6"/>
+    <hyperlink ref="G11" r:id="rId7"/>
+    <hyperlink ref="G12" r:id="rId8"/>
+    <hyperlink ref="G13" r:id="rId9"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
--- a/Test-Task.xlsx
+++ b/Test-Task.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="68">
   <si>
     <t>ID</t>
   </si>
@@ -201,17 +201,89 @@
   <si>
     <t>9.png</t>
   </si>
+  <si>
+    <t>Mr.Chang</t>
+  </si>
+  <si>
+    <t>When placing an order in the field  "Ім'я" "Назва Вулиці" "Номер будинку" "Номер телефону" took incorrect characters</t>
+  </si>
+  <si>
+    <t>1. Open https://mrchang.com.ua/?post_type=product
+2. Choose Рол “Філадельфія з лососем” and click "Додати у кошик"
+3. Click "Переглянути кошик"
+4. Click "Перейти до оформлення"
+5. Enter data in the fields</t>
+  </si>
+  <si>
+    <t>10.png</t>
+  </si>
+  <si>
+    <t>Actual result: When placing an order in the field  "Ім'я" "Назва Вулиці" "Номер будинку" "Номер телефону" took incorrect characters
+Expected result: When placing an order in the field "Ім'я" "Назва Вулиці" "Номер будинку" "Номер телефону" incorrect characters are highlighted</t>
+  </si>
+  <si>
+    <t>An order has been placed with incorrect data</t>
+  </si>
+  <si>
+    <t>Actual result: An order has been placed with incorrect data
+Expected result: The order is not placed</t>
+  </si>
+  <si>
+    <t>1. Open https://mrchang.com.ua/?post_type=product
+2. Choose Рол “Філадельфія з лососем” and click "Додати у кошик"
+3. Click "Переглянути кошик"
+4. Click "Перейти до оформлення"
+5. Enter data in the fields
+6. Click "Підтвердити замовлення"</t>
+  </si>
+  <si>
+    <t>11.png</t>
+  </si>
+  <si>
+    <t>Missing or not loading img files on the "Акції" page</t>
+  </si>
+  <si>
+    <t>Actual result: Missing or not loading img files on the "Акції" page
+Expected result: All img files on the page have been downloaded</t>
+  </si>
+  <si>
+    <t>1. Open https://mrchang.com.ua/?page_id=17</t>
+  </si>
+  <si>
+    <t>12.png</t>
+  </si>
+  <si>
+    <t>Missing or not loading .png files Instagram and Facebook</t>
+  </si>
+  <si>
+    <t>Actual result: Missing or not loading .png files Instagram and Facebook
+Expected result: .png files Instagram and Facebook have been downloaded</t>
+  </si>
+  <si>
+    <t>1. Open https://mrchang.com.ua/</t>
+  </si>
+  <si>
+    <t>13.png</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -287,7 +359,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -310,43 +382,227 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -654,17 +910,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I13"/>
+  <dimension ref="A2:I17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" style="1" customWidth="1"/>
     <col min="4" max="4" width="49.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="37.28515625" style="1" customWidth="1"/>
     <col min="6" max="6" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -675,64 +931,64 @@
   <sheetData>
     <row r="2" spans="1:9">
       <c r="C2" s="3"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-    </row>
-    <row r="4" spans="1:9" ht="21">
-      <c r="A4" s="6" t="s">
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="4" spans="1:9" ht="21.75" thickBot="1">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="110.25">
-      <c r="A5" s="4">
+      <c r="A5" s="12">
         <v>1</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="11" t="s">
+      <c r="H5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="I5" s="9"/>
+      <c r="I5" s="7"/>
     </row>
     <row r="6" spans="1:9" ht="94.5">
-      <c r="A6" s="4">
+      <c r="A6" s="17">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -741,10 +997,10 @@
       <c r="C6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="6" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="4" t="s">
@@ -753,12 +1009,12 @@
       <c r="G6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="75">
-      <c r="A7" s="4">
+      <c r="A7" s="17">
         <v>3</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -767,10 +1023,10 @@
       <c r="C7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F7" s="4" t="s">
@@ -779,12 +1035,12 @@
       <c r="G7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="18" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="75">
-      <c r="A8" s="4">
+      <c r="A8" s="17">
         <v>4</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -793,10 +1049,10 @@
       <c r="C8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="6" t="s">
         <v>27</v>
       </c>
       <c r="F8" s="4" t="s">
@@ -805,64 +1061,64 @@
       <c r="G8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H8" s="11" t="s">
+      <c r="H8" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="75">
-      <c r="A9" s="4">
+    <row r="9" spans="1:9" ht="75.75" thickBot="1">
+      <c r="A9" s="19">
         <v>5</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="23" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="60">
-      <c r="A10" s="4">
+      <c r="A10" s="12">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="27" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="63">
-      <c r="A11" s="4">
+      <c r="A11" s="17">
         <v>7</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -871,10 +1127,10 @@
       <c r="C11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="6" t="s">
         <v>40</v>
       </c>
       <c r="F11" s="4" t="s">
@@ -883,12 +1139,12 @@
       <c r="G11" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="28" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="60">
-      <c r="A12" s="4">
+      <c r="A12" s="17">
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -897,10 +1153,10 @@
       <c r="C12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F12" s="4" t="s">
@@ -909,34 +1165,138 @@
       <c r="G12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="63">
-      <c r="A13" s="4">
+    <row r="13" spans="1:9" ht="63.75" thickBot="1">
+      <c r="A13" s="19">
         <v>9</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="21" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="29" t="s">
         <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="141.75">
+      <c r="A14" s="12">
+        <v>10</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="157.5">
+      <c r="A15" s="17">
+        <v>11</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="75">
+      <c r="A16" s="17">
+        <v>12</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="75.75" thickBot="1">
+      <c r="A17" s="19">
+        <v>13</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -950,8 +1310,12 @@
     <hyperlink ref="G11" r:id="rId7"/>
     <hyperlink ref="G12" r:id="rId8"/>
     <hyperlink ref="G13" r:id="rId9"/>
+    <hyperlink ref="G14" r:id="rId10"/>
+    <hyperlink ref="G15" r:id="rId11"/>
+    <hyperlink ref="G16" r:id="rId12"/>
+    <hyperlink ref="G17" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId14"/>
 </worksheet>
 </file>